--- a/homework3/hw3ERgraph.xlsx
+++ b/homework3/hw3ERgraph.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25160" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="320" yWindow="0" windowWidth="25180" windowHeight="15600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -833,28 +833,733 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="Straight Connector 44"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="0"/>
+          <a:endCxn id="236" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7588250" y="6235700"/>
+          <a:ext cx="6350" cy="863600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="57150" cmpd="sng"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Diamond 39"/>
+        <xdr:cNvPr id="116" name="Diamond 115"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6350000" y="6997700"/>
-          <a:ext cx="2578100" cy="1155700"/>
+          <a:off x="6311900" y="11849100"/>
+          <a:ext cx="2616200" cy="1079500"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Record</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="Oval 124"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6692900" y="14097000"/>
+          <a:ext cx="1841500" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Time</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="128" name="Straight Connector 127"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="125" idx="0"/>
+          <a:endCxn id="116" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="7613650" y="12928600"/>
+          <a:ext cx="6350" cy="1168400"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="164" name="Straight Connector 163"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="2"/>
+          <a:endCxn id="116" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7594600" y="9982200"/>
+          <a:ext cx="25400" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="218" name="Isosceles Triangle 217"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7073900" y="4127500"/>
+          <a:ext cx="1028700" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="triangle">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>isa</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="236" name="Rectangle 235"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6527800" y="5334000"/>
+          <a:ext cx="2133600" cy="901700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Owner</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="242" name="Straight Connector 241"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="218" idx="3"/>
+          <a:endCxn id="236" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7588250" y="4965700"/>
+          <a:ext cx="6350" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="243" name="Oval 242"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4495800" y="5461000"/>
+          <a:ext cx="1270000" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="sng"/>
+            <a:t>Owner_ID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="245" name="Straight Connector 244"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="243" idx="6"/>
+          <a:endCxn id="236" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5765800" y="5772150"/>
+          <a:ext cx="762000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="251" name="Straight Connector 250"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="116" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="5029200"/>
+          <a:ext cx="4000500" cy="6819900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="253" name="Straight Connector 252"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="2"/>
+          <a:endCxn id="116" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7620000" y="5156200"/>
+          <a:ext cx="3727450" cy="6692900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>415925</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="1"/>
+          <a:endCxn id="218" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7845425" y="4546600"/>
+          <a:ext cx="2263775" cy="50800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>727075</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Straight Arrow Connector 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="218" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4660900" y="4546600"/>
+          <a:ext cx="2670175" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6464300" y="8966200"/>
+          <a:ext cx="2260600" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -888,269 +1593,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Oval 41"/>
+        <xdr:cNvPr id="28" name="Diamond 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2755900" y="7112000"/>
-          <a:ext cx="1587500" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" u="none"/>
-            <a:t>Name</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="45" name="Straight Connector 44"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="40" idx="0"/>
-          <a:endCxn id="236" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7620000" y="6223000"/>
-          <a:ext cx="19050" cy="774700"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="Straight Connector 46"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="42" idx="6"/>
-          <a:endCxn id="40" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4343400" y="7416800"/>
-          <a:ext cx="2006600" cy="158750"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>765175</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="78" name="Straight Connector 77"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="218" idx="1"/>
-          <a:endCxn id="2" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4660900" y="4559300"/>
-          <a:ext cx="2708275" cy="12700"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>454025</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="80" name="Straight Connector 79"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="218" idx="5"/>
-          <a:endCxn id="18" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7883525" y="4572000"/>
-          <a:ext cx="2225675" cy="25400"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="116" name="Diamond 115"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6311900" y="11849100"/>
-          <a:ext cx="2616200" cy="1079500"/>
+          <a:off x="6527800" y="7099300"/>
+          <a:ext cx="2120900" cy="1104900"/>
         </a:xfrm>
         <a:prstGeom prst="diamond">
           <a:avLst/>
@@ -1177,7 +1639,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Record</a:t>
+            <a:t>Owns</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1187,688 +1649,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="Oval 124"/>
+        <xdr:cNvPr id="228" name="Oval 227"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4495800" y="14071600"/>
-          <a:ext cx="1841500" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Time</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="126" name="Oval 125"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6819900" y="14376400"/>
-          <a:ext cx="1841500" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Emp_Responsible</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="127" name="Oval 126"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9258300" y="14160500"/>
-          <a:ext cx="1790700" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Purpose</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="128" name="Straight Connector 127"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="125" idx="0"/>
-          <a:endCxn id="116" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="5416550" y="12928600"/>
-          <a:ext cx="2203450" cy="1143000"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="129" name="Straight Connector 128"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="127" idx="0"/>
-          <a:endCxn id="116" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="7620000" y="12928600"/>
-          <a:ext cx="2533650" cy="1231900"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="130" name="Straight Connector 129"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="116" idx="2"/>
-          <a:endCxn id="126" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7620000" y="12928600"/>
-          <a:ext cx="120650" cy="1447800"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="164" name="Straight Connector 163"/>
-        <xdr:cNvCxnSpPr>
-          <a:endCxn id="116" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7620000" y="8407400"/>
-          <a:ext cx="12700" cy="3441700"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="197" name="Double Brace 196"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="76200" y="2374900"/>
-          <a:ext cx="16408400" cy="5664200"/>
-        </a:xfrm>
-        <a:prstGeom prst="bracePair">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="200" name="Oval 199"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10858500" y="7105650"/>
-          <a:ext cx="1587500" cy="609600"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" u="none"/>
-            <a:t>Eq_ID</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="201" name="Straight Connector 200"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="40" idx="3"/>
-          <a:endCxn id="200" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8928100" y="7410450"/>
-          <a:ext cx="1930400" cy="165100"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="218" name="Isosceles Triangle 217"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7112000" y="4152900"/>
-          <a:ext cx="1028700" cy="838200"/>
-        </a:xfrm>
-        <a:prstGeom prst="triangle">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>isa</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="236" name="Rectangle 235"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6553200" y="5321300"/>
-          <a:ext cx="2133600" cy="901700"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>Owner</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="242" name="Straight Connector 241"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="218" idx="3"/>
-          <a:endCxn id="236" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7620000" y="4991100"/>
-          <a:ext cx="6350" cy="330200"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>368300</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="243" name="Oval 242"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4495800" y="5461000"/>
-          <a:ext cx="1270000" cy="622300"/>
+          <a:off x="4305300" y="9144000"/>
+          <a:ext cx="1206500" cy="622300"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -1895,7 +1694,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" sz="1100" u="sng"/>
-            <a:t>Owner_ID</a:t>
+            <a:t>ID_Num</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1904,29 +1703,84 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Oval 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9829800" y="9182100"/>
+          <a:ext cx="1206500" cy="622300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" u="sng"/>
+            <a:t>Name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="245" name="Straight Connector 244"/>
+        <xdr:cNvPr id="230" name="Straight Connector 229"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="243" idx="6"/>
-          <a:endCxn id="236" idx="1"/>
+          <a:stCxn id="24" idx="3"/>
+          <a:endCxn id="61" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5765800" y="5772150"/>
-          <a:ext cx="787400" cy="0"/>
+          <a:off x="8724900" y="9474200"/>
+          <a:ext cx="1104900" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1951,29 +1805,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="251" name="Straight Connector 250"/>
+        <xdr:cNvPr id="232" name="Straight Connector 231"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="2" idx="2"/>
-          <a:endCxn id="116" idx="0"/>
+          <a:stCxn id="24" idx="1"/>
+          <a:endCxn id="228" idx="6"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3619500" y="5029200"/>
-          <a:ext cx="4000500" cy="6819900"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5511800" y="9455150"/>
+          <a:ext cx="952500" cy="19050"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1999,32 +1853,38 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>615950</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="253" name="Straight Connector 252"/>
+        <xdr:cNvPr id="249" name="Straight Arrow Connector 248"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="18" idx="2"/>
-          <a:endCxn id="116" idx="0"/>
+          <a:stCxn id="24" idx="0"/>
+          <a:endCxn id="28" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="7620000" y="5156200"/>
-          <a:ext cx="3727450" cy="6692900"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7588250" y="8204200"/>
+          <a:ext cx="6350" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200" cmpd="sng">
+          <a:solidFill>
+            <a:srgbClr val="4F81BD"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2370,8 +2230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/homework3/hw3ERgraph.xlsx
+++ b/homework3/hw3ERgraph.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="0" windowWidth="25180" windowHeight="15600" tabRatio="500"/>
+    <workbookView xWindow="-440" yWindow="0" windowWidth="25140" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -592,13 +592,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -608,8 +608,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13017500" y="2565400"/>
-          <a:ext cx="1968500" cy="850900"/>
+          <a:off x="13208000" y="2933700"/>
+          <a:ext cx="2006600" cy="901700"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -740,13 +740,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>615950</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:colOff>622300</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>793750</xdr:colOff>
+      <xdr:colOff>800100</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -760,8 +760,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="11347450" y="3416300"/>
-          <a:ext cx="2654300" cy="622300"/>
+          <a:off x="11518900" y="3835400"/>
+          <a:ext cx="2692400" cy="469900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2230,8 +2230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
+      <selection activeCell="X30" sqref="X30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
